--- a/Subjects/subject 17/audio_data.xlsx
+++ b/Subjects/subject 17/audio_data.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_POST</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>DIGIT_PRE</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>DICHOTIC_PRE</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_after</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_before_after</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>DICHOTIC_POST</t>
         </is>
       </c>
     </row>

--- a/Subjects/subject 17/audio_data.xlsx
+++ b/Subjects/subject 17/audio_data.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Digit_before_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>MAB_phase</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>DIGIT_POST</t>
+          <t>MAB_and_Digit_after</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>DIGIT_PRE</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>DICHOTIC_PRE</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Digit_before_after</t>
+          <t>MAB_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dichotic_before_after</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>dichotic_phase</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>DICHOTIC_POST</t>
+          <t>Dichotic_and_AFACT</t>
         </is>
       </c>
     </row>
